--- a/public/sample_cutoff_format.xlsx
+++ b/public/sample_cutoff_format.xlsx
@@ -119,7 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -166,33 +166,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -503,27 +512,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -545,309 +554,309 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
         <v>5433</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>74.2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>69.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>66.6</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
         <v>70.2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>68.4</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>72.8</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="8">
         <v>70</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
         <v>5433</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>87.4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>74.8</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>63.4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>82</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>77.6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>69.8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>63.8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>86.2</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>87.6</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>74.8</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
         <v>83.6</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="7">
         <v>81.4</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="8">
         <v>87</v>
       </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
+      <c r="T3" s="8">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="5">
         <v>5433</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>77.4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>70.2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>47.2</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
         <v>73.6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>62.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>71.4</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>75.4</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>74.8</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="8">
         <v>70</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
         <v>73.4</v>
       </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5">
         <v>5433</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>74.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>69.6</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>64</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="8">
         <v>60</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>73.2</v>
       </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>69.75</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
         <v>60</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
         <v>62.4</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="8">
         <v>70</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="8">
         <v>0</v>
       </c>
     </row>

--- a/public/sample_cutoff_format.xlsx
+++ b/public/sample_cutoff_format.xlsx
@@ -28,31 +28,31 @@
     <t>subCategory</t>
   </si>
   <si>
-    <t>NGOPENH</t>
-  </si>
-  <si>
-    <t>NGSCH</t>
-  </si>
-  <si>
-    <t>NGSTH</t>
-  </si>
-  <si>
-    <t>NGNTAH</t>
-  </si>
-  <si>
-    <t>NGNTBH</t>
-  </si>
-  <si>
-    <t>NGNTCH</t>
-  </si>
-  <si>
-    <t>NGNTDH</t>
-  </si>
-  <si>
-    <t>NGOBCH</t>
-  </si>
-  <si>
-    <t>NGSEBCH</t>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>NT-A</t>
+  </si>
+  <si>
+    <t>NT-B</t>
+  </si>
+  <si>
+    <t>NT-C</t>
+  </si>
+  <si>
+    <t>NT-D</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>SEBC</t>
   </si>
   <si>
     <t>NLOPENH</t>
